--- a/va_facility_data_2025-02-20/West Los Angeles VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Los%20Angeles%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Los Angeles VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Los%20Angeles%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9861671092374f238a494c49e3cdb5af"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R74b6f52e9f3d4798a3939d8064ffb7c6"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R37f37ca37618458392f1e71f5d5adc31"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R56e20a1c30bc4a678f9ed0da3ed56079"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rfb93e415727446f6a6c02191739b0fde"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9a0a5026649d49cd8deed18c4e0372ec"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R0581f9c8409c4a01b026e09dee10d3ba"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R1765871aab3b4269bc0adc0632c072ba"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re24560b96f04440f9320aab99ad43713"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8dc388a5e4584de390db15acd4ce2991"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rac4042dd920f4c21b99344b6583f408f"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5689fee68ed745ffb10a9082dde76a95"/>
   </x:sheets>
 </x:workbook>
 </file>
